--- a/conf/catalog.xlsx
+++ b/conf/catalog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -149,6 +149,26 @@
   </si>
   <si>
     <t>http://${hostname}:${port}/catalog-service/api/v1/actor/${xyz.actorId}</t>
+  </si>
+  <si>
+    <t>[
+    {"actorId": "${actorId}"},
+   { "actorName":"${actorName}"},
+   { "actorType": "Vendor"},
+   "catalogId",
+   { "products": []},
+   { "catalogs":null}
+]</t>
+  </si>
+  <si>
+    <t>[
+    {"actorId": "${actorId}"},
+    {"actorName": "${actorName}"},
+    {"actorType": "Vendor"},
+    "catalogId",
+    {"products": []},
+   { "catalogs": null}
+]</t>
   </si>
 </sst>
 </file>
@@ -231,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -247,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -634,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>30</v>
@@ -657,6 +680,7 @@
       <c r="G4" s="7">
         <v>200</v>
       </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="7" t="b">
         <v>1</v>
       </c>
@@ -664,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>26</v>
@@ -714,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD18"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
